--- a/bean-mapper-test/docs/jdk8/PerformanceTestWithCompleteFixtures.xlsx
+++ b/bean-mapper-test/docs/jdk8/PerformanceTestWithCompleteFixtures.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
-    <t>06.09.2014 um 21:43 Uhr</t>
+    <t>05.06.2015 um 21:23 Uhr</t>
   </si>
   <si>
     <t>Name des Messpunkts</t>
@@ -158,19 +158,19 @@
         <v>10.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.699206</v>
+        <v>0.527046</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -184,22 +184,22 @@
         <v>10.0</v>
       </c>
       <c r="C4" t="n">
-        <v>660.0</v>
+        <v>588.0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="E4" t="n">
-        <v>277.0</v>
+        <v>272.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>66.0</v>
+        <v>58.8</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>77.0469</v>
+        <v>75.4716</v>
       </c>
       <c r="H4" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
@@ -210,22 +210,22 @@
         <v>10.0</v>
       </c>
       <c r="C5" t="n">
-        <v>191.0</v>
+        <v>198.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>19.1</v>
+        <v>19.8</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>53.3842</v>
+        <v>52.7843</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -251,7 +251,7 @@
         <v>0.674949</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -306,22 +306,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>47344.0</v>
+        <v>52131.0</v>
       </c>
       <c r="C3" t="n">
-        <v>840.0</v>
+        <v>837.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.0177425</v>
+        <v>0.0160557</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.136112</v>
+        <v>0.143639</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -332,22 +332,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>47344.0</v>
+        <v>52131.0</v>
       </c>
       <c r="C4" t="n">
-        <v>545969.0</v>
+        <v>540640.0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>11.532</v>
+        <v>10.3708</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>1.16297</v>
+        <v>1.15156</v>
       </c>
       <c r="H4" t="n">
         <v>10.0</v>
@@ -358,25 +358,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>47344.0</v>
+        <v>52131.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24775.0</v>
+        <v>26791.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>0.523298</v>
+        <v>0.513917</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>0.533687</v>
+        <v>0.534242</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -384,22 +384,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>47344.0</v>
+        <v>52131.0</v>
       </c>
       <c r="C6" t="n">
-        <v>7676.0</v>
+        <v>7968.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.162132</v>
+        <v>0.152846</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.372112</v>
+        <v>0.37154</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -430,31 +430,37 @@
       <c r="H9" t="n" s="1">
         <v>40000.0</v>
       </c>
+      <c r="I9" t="n" s="1">
+        <v>50000.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.016</v>
+        <v>0.029</v>
       </c>
       <c r="E10" t="n" s="2">
-        <v>0.0183</v>
+        <v>0.0171</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0175</v>
+        <v>0.01625</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0173</v>
+        <v>0.0158333</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0178</v>
+        <v>0.01585</v>
+      </c>
+      <c r="I10" t="n" s="2">
+        <v>0.01616</v>
       </c>
     </row>
     <row r="11">
@@ -462,25 +468,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="2">
-        <v>18.7</v>
+        <v>24.2</v>
       </c>
       <c r="C11" t="n" s="2">
-        <v>15.76</v>
+        <v>21.19</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>11.721</v>
+        <v>11.756</v>
       </c>
       <c r="E11" t="n" s="2">
-        <v>11.3861</v>
+        <v>10.418</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>11.4572</v>
+        <v>10.3577</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>11.5292</v>
+        <v>10.3566</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>11.5224</v>
+        <v>10.3805</v>
+      </c>
+      <c r="I11" t="n" s="2">
+        <v>10.3738</v>
       </c>
     </row>
     <row r="12">
@@ -488,25 +497,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="2">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="C12" t="n" s="2">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>0.584</v>
+        <v>0.605</v>
       </c>
       <c r="E12" t="n" s="2">
-        <v>0.5243</v>
+        <v>0.5177</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>0.52185</v>
+        <v>0.51745</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>0.5251</v>
+        <v>0.518067</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>0.522925</v>
+        <v>0.516925</v>
+      </c>
+      <c r="I12" t="n" s="2">
+        <v>0.51354</v>
       </c>
     </row>
     <row r="13">
@@ -514,25 +526,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="n" s="2">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="E13" t="n" s="2">
-        <v>0.1816</v>
+        <v>0.174</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.16995</v>
+        <v>0.1605</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.166367</v>
+        <v>0.156133</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.162975</v>
+        <v>0.15455</v>
+      </c>
+      <c r="I13" t="n" s="2">
+        <v>0.15386</v>
       </c>
     </row>
   </sheetData>
